--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3232.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3232.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.437908602207841</v>
+        <v>1.163197755813599</v>
       </c>
       <c r="B1">
-        <v>2.851278265697625</v>
+        <v>1.526278138160706</v>
       </c>
       <c r="C1">
-        <v>3.839563324047932</v>
+        <v>1.548879742622375</v>
       </c>
       <c r="D1">
-        <v>3.652515879160227</v>
+        <v>1.470386505126953</v>
       </c>
       <c r="E1">
-        <v>1.196412693318378</v>
+        <v>1.386083006858826</v>
       </c>
     </row>
   </sheetData>
